--- a/data/nitrate.xlsx
+++ b/data/nitrate.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lordl\Desktop\Mr. Kofi Sarpong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\branana\Desktop\Github Repos\wqm-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9BA096-6B03-45DF-AAF0-379E0C67AE51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0982120-2187-4C28-88E4-B7941B0B823A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="2928" windowWidth="17280" windowHeight="9072" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Copy" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,7 +39,7 @@
     <author>lord amoah</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{DBC0C86E-6999-4604-A1FF-22BB7F6F4C19}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{DBC0C86E-6999-4604-A1FF-22BB7F6F4C19}">
       <text>
         <r>
           <rPr>
@@ -50,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{E9A2B03F-39C4-43B1-A369-763134F6D145}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{E9A2B03F-39C4-43B1-A369-763134F6D145}">
       <text>
         <r>
           <rPr>
@@ -79,10 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="30">
-  <si>
-    <t>University Of Ghana Water Quality Project 1552322708215</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="29">
   <si>
     <t>Reading Date</t>
   </si>
@@ -230,22 +240,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -255,11 +261,6 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -275,26 +276,6 @@
       <font>
         <color rgb="FF7030A0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -606,67 +587,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="1" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6"/>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>-1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -675,254 +664,234 @@
         <v>-1</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
-        <v>-1</v>
+      <c r="C5" s="3">
+        <v>803885.58</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3">
-        <v>803885.58</v>
+        <v>717501.08</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
-        <v>717501.08</v>
+      <c r="C7">
+        <v>693666.7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8">
-        <v>693666.7</v>
+        <v>694384.2</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <v>694384.2</v>
+        <v>679399.9</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10">
-        <v>679399.9</v>
+        <v>5784.0060000000003</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11">
-        <v>5784.0060000000003</v>
+        <v>8707.9390000000003</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12">
-        <v>8707.9390000000003</v>
+        <v>6158.6880000000001</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
-        <v>6158.6880000000001</v>
+      <c r="C13" s="3">
+        <v>5295.86</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3">
-        <v>5295.86</v>
+      <c r="C14">
+        <v>5569.2039999999997</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15">
-        <v>5569.2039999999997</v>
+      <c r="C15" s="2">
+        <v>-1</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2">
-        <v>-1</v>
+      <c r="C16">
+        <v>18794.822</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17">
-        <v>18794.822</v>
+        <v>1681.2180000000001</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>1681.2180000000001</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -930,81 +899,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E710E012-0BD5-4572-A858-192F988124CD}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>26</v>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <f>MIN(C2:C17)</f>
+        <v>-1</v>
+      </c>
+      <c r="H2" s="2">
+        <f>MAX(C2:C17)</f>
+        <v>803885.58</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>-1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2">
-        <f>MIN(C3:C18)</f>
-        <v>-1</v>
-      </c>
-      <c r="H3" s="2">
-        <f>MAX(C3:C18)</f>
-        <v>803885.58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1013,270 +990,250 @@
         <v>-1</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
-        <v>-1</v>
+      <c r="C5" s="3">
+        <v>803885.58</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3">
-        <v>803885.58</v>
+        <v>717501.08</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
-        <v>717501.08</v>
+      <c r="C7">
+        <v>693666.7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8">
-        <v>693666.7</v>
+        <v>694384.2</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <v>694384.2</v>
+        <v>679399.9</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10">
-        <v>679399.9</v>
+        <v>5784.0060000000003</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11">
-        <v>5784.0060000000003</v>
+        <v>8707.9390000000003</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12">
-        <v>8707.9390000000003</v>
+        <v>6158.6880000000001</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
-        <v>6158.6880000000001</v>
+      <c r="C13" s="3">
+        <v>5295.86</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3">
-        <v>5295.86</v>
+      <c r="C14">
+        <v>5569.2039999999997</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15">
-        <v>5569.2039999999997</v>
+      <c r="C15" s="2">
+        <v>-1</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2">
-        <v>-1</v>
+      <c r="C16">
+        <v>18794.822</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17">
-        <v>18794.822</v>
+        <v>1681.2180000000001</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>1681.2180000000001</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="G17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>100</formula>
       <formula>200</formula>
